--- a/new_modules/Summary_2023-05-17_L2A.xlsx
+++ b/new_modules/Summary_2023-05-17_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1302.335327148438</v>
+        <v>1314.430908203125</v>
       </c>
       <c r="C2">
-        <v>0.977</v>
+        <v>0.9861</v>
       </c>
       <c r="D2">
-        <v>0.9415000081062317</v>
+        <v>0.9617000222206116</v>
       </c>
       <c r="E2">
-        <v>1.496600031852722</v>
+        <v>1.40719997882843</v>
       </c>
       <c r="F2">
-        <v>0.7008000016212463</v>
+        <v>0.8133000135421753</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.9473</v>
+        <v>1.1255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1300.663330078125</v>
+        <v>1182.26953125</v>
       </c>
       <c r="C3">
-        <v>1.0405</v>
+        <v>0.9458</v>
       </c>
       <c r="D3">
-        <v>0.9540999999999999</v>
+        <v>0.9073</v>
       </c>
       <c r="E3">
-        <v>2.097399950027466</v>
+        <v>1.34060001373291</v>
       </c>
       <c r="F3">
-        <v>0.6499000191688538</v>
+        <v>0.800599992275238</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0585</v>
+        <v>0.6443</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>864.9769287109375</v>
+        <v>810.4566040039062</v>
       </c>
       <c r="C4">
-        <v>1.0105</v>
+        <v>0.9468</v>
       </c>
       <c r="D4">
-        <v>0.9334</v>
+        <v>0.9135</v>
       </c>
       <c r="E4">
-        <v>2.114500045776367</v>
+        <v>1.288699984550476</v>
       </c>
       <c r="F4">
-        <v>0.7583000063896179</v>
+        <v>0.8578000068664551</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.8752</v>
+        <v>0.6992</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>828.2485961914062</v>
+        <v>880.3624267578125</v>
       </c>
       <c r="C5">
-        <v>0.8737</v>
+        <v>0.9287</v>
       </c>
       <c r="D5">
-        <v>0.8646</v>
+        <v>0.9183</v>
       </c>
       <c r="E5">
-        <v>1.305400013923645</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="F5">
-        <v>0.6258999705314636</v>
+        <v>0.7282999753952026</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.2654</v>
+        <v>0.7412</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1113.487060546875</v>
+        <v>1165.527709960938</v>
       </c>
       <c r="C6">
-        <v>0.8809</v>
+        <v>0.9221</v>
       </c>
       <c r="D6">
-        <v>0.872</v>
+        <v>0.9177</v>
       </c>
       <c r="E6">
-        <v>1.135900020599365</v>
+        <v>1.07260000705719</v>
       </c>
       <c r="F6">
-        <v>0.6886000037193298</v>
+        <v>0.8080999851226807</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.331</v>
+        <v>0.7363</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>853.61181640625</v>
+        <v>908.8593139648438</v>
       </c>
       <c r="C7">
-        <v>0.8596</v>
+        <v>0.9153</v>
       </c>
       <c r="D7">
-        <v>0.8547999858856201</v>
+        <v>0.9110000133514404</v>
       </c>
       <c r="E7">
-        <v>1.061200022697449</v>
+        <v>0.9929999709129333</v>
       </c>
       <c r="F7">
-        <v>0.7253999710083008</v>
+        <v>0.8610000014305115</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.1793</v>
+        <v>0.6768999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>919.6356201171875</v>
+        <v>1010.140930175781</v>
       </c>
       <c r="C8">
-        <v>0.824</v>
+        <v>0.9051</v>
       </c>
       <c r="D8">
-        <v>0.8186</v>
+        <v>0.9036999999999999</v>
       </c>
       <c r="E8">
-        <v>1.119799971580505</v>
+        <v>1.039399981498718</v>
       </c>
       <c r="F8">
-        <v>0.7170000076293945</v>
+        <v>0.8550999760627747</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>-0.1419</v>
+        <v>0.6118</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7182.95849609375</v>
+        <v>7272.0478515625</v>
       </c>
       <c r="C9">
-        <v>0.9258</v>
+        <v>0.9372</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.114500045776367</v>
+        <v>1.40719997882843</v>
       </c>
       <c r="F9">
-        <v>0.6258999705314636</v>
+        <v>0.7282999753952026</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.5148</v>
+        <v>5.2352</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-17_L2A.xlsx
+++ b/new_modules/Summary_2023-05-17_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1314.430908203125</v>
+        <v>1302.0849609375</v>
       </c>
       <c r="C2">
-        <v>0.9861</v>
+        <v>0.9768</v>
       </c>
       <c r="D2">
-        <v>0.9617000222206116</v>
+        <v>0.9413999915122986</v>
       </c>
       <c r="E2">
-        <v>1.40719997882843</v>
+        <v>1.496299982070923</v>
       </c>
       <c r="F2">
-        <v>0.8133000135421753</v>
+        <v>0.7006000280380249</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>1.1255</v>
+        <v>0.9457</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1182.26953125</v>
+        <v>1300.41357421875</v>
       </c>
       <c r="C3">
-        <v>0.9458</v>
+        <v>1.0403</v>
       </c>
       <c r="D3">
-        <v>0.9073</v>
+        <v>0.9539</v>
       </c>
       <c r="E3">
-        <v>1.34060001373291</v>
+        <v>2.096999883651733</v>
       </c>
       <c r="F3">
-        <v>0.800599992275238</v>
+        <v>0.6496999859809875</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.6443</v>
+        <v>1.0569</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>810.4566040039062</v>
+        <v>864.810791015625</v>
       </c>
       <c r="C4">
-        <v>0.9468</v>
+        <v>1.0103</v>
       </c>
       <c r="D4">
-        <v>0.9135</v>
+        <v>0.9332</v>
       </c>
       <c r="E4">
-        <v>1.288699984550476</v>
+        <v>2.114099979400635</v>
       </c>
       <c r="F4">
-        <v>0.8578000068664551</v>
+        <v>0.7580999732017517</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.6992</v>
+        <v>0.8736</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>880.3624267578125</v>
+        <v>828.089599609375</v>
       </c>
       <c r="C5">
-        <v>0.9287</v>
+        <v>0.8735000000000001</v>
       </c>
       <c r="D5">
-        <v>0.9183</v>
+        <v>0.8643999999999999</v>
       </c>
       <c r="E5">
-        <v>1.080000042915344</v>
+        <v>1.305199980735779</v>
       </c>
       <c r="F5">
-        <v>0.7282999753952026</v>
+        <v>0.6258000135421753</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.7412</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1165.527709960938</v>
+        <v>1113.273193359375</v>
       </c>
       <c r="C6">
-        <v>0.9221</v>
+        <v>0.8808</v>
       </c>
       <c r="D6">
-        <v>0.9177</v>
+        <v>0.8718</v>
       </c>
       <c r="E6">
-        <v>1.07260000705719</v>
+        <v>1.135699987411499</v>
       </c>
       <c r="F6">
-        <v>0.8080999851226807</v>
+        <v>0.6884999871253967</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.7363</v>
+        <v>0.3296</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>908.8593139648438</v>
+        <v>853.4478759765625</v>
       </c>
       <c r="C7">
-        <v>0.9153</v>
+        <v>0.8595</v>
       </c>
       <c r="D7">
-        <v>0.9110000133514404</v>
+        <v>0.8547000288963318</v>
       </c>
       <c r="E7">
-        <v>0.9929999709129333</v>
+        <v>1.060999989509583</v>
       </c>
       <c r="F7">
-        <v>0.8610000014305115</v>
+        <v>0.7251999974250793</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.6768999999999999</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1010.140930175781</v>
+        <v>919.458984375</v>
       </c>
       <c r="C8">
-        <v>0.9051</v>
+        <v>0.8239</v>
       </c>
       <c r="D8">
-        <v>0.9036999999999999</v>
+        <v>0.8184</v>
       </c>
       <c r="E8">
-        <v>1.039399981498718</v>
+        <v>1.119500041007996</v>
       </c>
       <c r="F8">
-        <v>0.8550999760627747</v>
+        <v>0.7167999744415283</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6118</v>
+        <v>-0.1433</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7272.0478515625</v>
+        <v>7181.57861328125</v>
       </c>
       <c r="C9">
-        <v>0.9372</v>
+        <v>0.9257</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.40719997882843</v>
+        <v>2.114099979400635</v>
       </c>
       <c r="F9">
-        <v>0.7282999753952026</v>
+        <v>0.6258000135421753</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.2352</v>
+        <v>3.504300000000001</v>
       </c>
     </row>
   </sheetData>
